--- a/src/files/SA_design_Index.xlsx
+++ b/src/files/SA_design_Index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="0" windowWidth="34560" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="11960" yWindow="740" windowWidth="34560" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="238">
   <si>
     <t>Homepage</t>
   </si>
@@ -612,15 +612,9 @@
     <t>National Footer</t>
   </si>
   <si>
-    <t>Footer with SA logo and state links</t>
-  </si>
-  <si>
     <t>State Footer</t>
   </si>
   <si>
-    <t>Footer with state logo and no state links</t>
-  </si>
-  <si>
     <t>Log In / sign up</t>
   </si>
   <si>
@@ -736,13 +730,16 @@
   </si>
   <si>
     <t>Asset ID</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -802,6 +799,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -837,8 +850,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -883,7 +914,25 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1215,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1236,34 +1285,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>236</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1631,12 +1680,10 @@
         <v>49</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="I19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="I19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
@@ -2422,142 +2469,130 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="2"/>
       <c r="I56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>156</v>
+      <c r="J56" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="6"/>
-      <c r="C57" s="6">
-        <v>2</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="C57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>30</v>
+        <v>175</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="I57" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="E59" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>30</v>
+        <v>178</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="1">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>30</v>
+        <v>183</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="6"/>
-      <c r="C61" s="6">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>166</v>
-      </c>
+      <c r="C61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G61" s="7"/>
-      <c r="H61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>169</v>
+      <c r="I61" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2567,24 +2602,22 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="6"/>
@@ -2593,17 +2626,14 @@
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="I63" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2615,144 +2645,129 @@
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="E65" s="6" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>30</v>
+        <v>183</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="I65" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>7</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="I66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="6">
+        <v>4</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="E67" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="I67" s="9" t="s">
-        <v>25</v>
+      <c r="I67" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="6"/>
-      <c r="C69" s="6">
-        <v>3</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="C69" s="6"/>
       <c r="E69" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>178</v>
+      <c r="I69" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>8</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="2"/>
@@ -2763,12 +2778,17 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="E71" s="6" t="s">
+      <c r="C71" s="17">
         <v>6</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>184</v>
+      <c r="D71" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="G71" s="7"/>
       <c r="I71" s="9" t="s">
@@ -2779,24 +2799,26 @@
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="I72" s="15" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2806,14 +2828,14 @@
         <v>6</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G73" s="7"/>
-      <c r="I73" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>188</v>
+      <c r="H73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2825,181 +2847,190 @@
         <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="H74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="6"/>
       <c r="C75" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="I75" s="9" t="s">
-        <v>25</v>
+      <c r="H75" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="1">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J76" s="2"/>
+      <c r="I76" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="6"/>
-      <c r="C77" s="6">
-        <v>4</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="C77" s="6"/>
       <c r="E77" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="G77" s="7"/>
       <c r="I77" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
+      <c r="A78" s="1">
+        <v>9</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="H78" s="2"/>
       <c r="I78" s="15" t="s">
         <v>4</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="6"/>
       <c r="C79" s="6"/>
       <c r="E79" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G79" s="7"/>
       <c r="I79" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" s="2"/>
+      <c r="I80" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="6"/>
-      <c r="C81" s="17">
-        <v>6</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>199</v>
+      <c r="A81" s="6">
+        <v>10</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="G81" s="7"/>
-      <c r="I81" s="9" t="s">
-        <v>25</v>
+      <c r="I81" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="6"/>
@@ -3008,207 +3039,218 @@
         <v>6</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G83" s="7"/>
-      <c r="H83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>178</v>
+      <c r="I83" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
+      <c r="A84" s="1">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="6"/>
       <c r="C85" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G85" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="H85" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="1">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="G86" s="3"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="I86" s="15" t="s">
         <v>4</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="6"/>
       <c r="C87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="I87" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>211</v>
+        <v>41</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>9</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>214</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="6">
+        <v>3</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="E89" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G89" s="7"/>
+      <c r="H89" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="I89" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="6">
-        <v>10</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="6">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="A91" s="6"/>
+      <c r="C91" s="6"/>
       <c r="E91" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="G91" s="7"/>
-      <c r="I91" s="5" t="s">
-        <v>178</v>
+      <c r="H91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="1">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="J92" s="2"/>
     </row>
@@ -3216,14 +3258,19 @@
       <c r="A93" s="6"/>
       <c r="C93" s="6"/>
       <c r="E93" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="I93" s="9" t="s">
-        <v>25</v>
+        <v>163</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3241,7 +3288,7 @@
     <row r="95" spans="1:10">
       <c r="A95" s="18"/>
       <c r="B95" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
@@ -3254,7 +3301,7 @@
     <row r="96" spans="1:10">
       <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -3268,7 +3315,7 @@
     <row r="97" spans="1:10">
       <c r="A97" s="6"/>
       <c r="B97" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C97" s="6"/>
       <c r="E97" s="6"/>
@@ -3277,7 +3324,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="1"/>
       <c r="B98" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
